--- a/Congreso_2016/DATOS_SIMPOSIOS_2016.xlsx
+++ b/Congreso_2016/DATOS_SIMPOSIOS_2016.xlsx
@@ -17,31 +17,992 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="518">
   <si>
-    <t>Institución</t>
-  </si>
-  <si>
-    <t>Nombres</t>
+    <t>1. Nombres</t>
+  </si>
+  <si>
+    <t>2. Institución</t>
+  </si>
+  <si>
+    <t>3. Título de la actividad</t>
   </si>
   <si>
     <t>Temática</t>
   </si>
   <si>
-    <t>Título de la actividad</t>
+    <t>Graciela Ester Ralón de Walton</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de San Martín (Argentina)</t>
+  </si>
+  <si>
+    <t>La Naturaleza como el “otro lado del hombre”. Un análisis desde la lógica responsiva</t>
+  </si>
+  <si>
+    <t>Figuras de la alteridad: el otro, lo otro, lo extraño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo Verano </t>
+  </si>
+  <si>
+    <t>Universidad del Norte</t>
+  </si>
+  <si>
+    <t>La carne y el rostro: Un diálogo entre Merleau-Ponty y Lévinas</t>
+  </si>
+  <si>
+    <t>Ana María Rabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad de Antioquia, Instituto de Filosofía </t>
+  </si>
+  <si>
+    <t>El tiempo: lo otro del espacio. Reflexiones en torno a la unidad y alteridad espacio-temporal en Chillida y Heidegger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jairo Escobar </t>
+  </si>
+  <si>
+    <t>Universidad de Antioquia, Intituto de Filosofía</t>
+  </si>
+  <si>
+    <t>Tiempo y discurso en Bernhard Waldenfels. Una perspectiva fenonemonógica de lo extraño</t>
+  </si>
+  <si>
+    <t>Rubí de María Gómez Campos</t>
+  </si>
+  <si>
+    <t>Facultad de Filosofía. Universidad Michoacana de San Nicolás de Hidalgo, Morelia (México)</t>
+  </si>
+  <si>
+    <t>Sentir, percibir, concebir. Aproximación histórico-fenomenológica, ontológica y política a la diferencia de los sexos y la actividad de pensar.</t>
+  </si>
+  <si>
+    <t>Mario Teodoro Ramírez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto de Investigaciones Filosóficas Luis Villoro. Universidad Michoacana de San Nicolás de Hidalgo, Morelia (México) </t>
+  </si>
+  <si>
+    <t>La alteridad indígena: motivo y razón de la filosofía de Luis Villoro.</t>
+  </si>
+  <si>
+    <t>Stascha Rohmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad de Medellín </t>
+  </si>
+  <si>
+    <t>Límite, juicio y alteridad en Hegel</t>
+  </si>
+  <si>
+    <t>Andrés Francisco Contreras S.</t>
+  </si>
+  <si>
+    <t>Universidad de Antioquia. Instituto de Filosofía</t>
+  </si>
+  <si>
+    <t>Alteridad, diferencia y perspectiva: el papel del otro y de lo otro en la filosofía hermenéutica</t>
+  </si>
+  <si>
+    <t>Camila de Gamboa y Juan Felipe Lozano</t>
+  </si>
+  <si>
+    <t>Universidad del Rosario</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "El perdón interpersonal en el contexto de la justicia transicional". </t>
+  </si>
+  <si>
+    <t>Retórica, responsabilidad y sentimientos morales en Colombia</t>
+  </si>
+  <si>
+    <t>Maria Victoria Uribe</t>
+  </si>
+  <si>
+    <t>universidad del Rosario</t>
+  </si>
+  <si>
+    <t>¿Mutar de guerrillero a ciudadano y de ciudadano a político? Solo naturalizando del daño.</t>
+  </si>
+  <si>
+    <t>Catalina González</t>
+  </si>
+  <si>
+    <t>Universidad de Los Andes</t>
+  </si>
+  <si>
+    <t>La retórica cínica de los Nule y los sentimientos morales</t>
+  </si>
+  <si>
+    <t>Federico Otálora</t>
+  </si>
+  <si>
+    <t>El carrusel de la contratación como una patente de mala fe</t>
+  </si>
+  <si>
+    <t>Maria Lucía Rivera</t>
+  </si>
+  <si>
+    <t>Universidad del Bosque</t>
+  </si>
+  <si>
+    <t>Si de algo soy culpable, fue de haberme enamorado”, cuando la ‘galantería’ y la pasión disfrazan el daño.</t>
+  </si>
+  <si>
+    <t>Diana Acevedo</t>
+  </si>
+  <si>
+    <t>Universidad Pedagógica</t>
+  </si>
+  <si>
+    <t>Cuando las palabras esconden el daño: Una lectura de Marvel Moreno</t>
+  </si>
+  <si>
+    <t>Angela Uribe</t>
+  </si>
+  <si>
+    <t>Universidad Nacional</t>
+  </si>
+  <si>
+    <t>Palabrerío y empatía. Sobre Memoria por correspondencia de Emma Reyes</t>
+  </si>
+  <si>
+    <t>Adrian Cussins</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La nueva política </t>
+  </si>
+  <si>
+    <t>Verdad y política</t>
+  </si>
+  <si>
+    <t>William Duica</t>
+  </si>
+  <si>
+    <t>Perdón y comprensión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Eduardo Hoyos </t>
+  </si>
+  <si>
+    <t>Epistemología y política</t>
+  </si>
+  <si>
+    <t>Carlos Manrique</t>
+  </si>
+  <si>
+    <t>Universidad de los Andes</t>
+  </si>
+  <si>
+    <t>La ciencia de la historia contra la ciencia del Estado (razones para omitir el uso de la palabra 'pos-moderno')</t>
+  </si>
+  <si>
+    <t>Andrea Mejía</t>
+  </si>
+  <si>
+    <t>Recursos de verdad, recursos de sentido</t>
+  </si>
+  <si>
+    <t>Gonzalo Serrano</t>
+  </si>
+  <si>
+    <t>Política del individuo</t>
+  </si>
+  <si>
+    <t>Héctor Salinas</t>
+  </si>
+  <si>
+    <t>Universidad Javeriana</t>
+  </si>
+  <si>
+    <t>Univocidad del ser en Enrique de Gante y Juan Duns Escoto: el transfondo aviceniano</t>
+  </si>
+  <si>
+    <t>Filosofía medieval</t>
+  </si>
+  <si>
+    <t>Biviana Unger Parra</t>
+  </si>
+  <si>
+    <t>Agustín y Cicerón: de la retórica a la filosofía</t>
+  </si>
+  <si>
+    <t>Nicolás Vaughan</t>
+  </si>
+  <si>
+    <t>Ockham y Anselmo sobre la verdad</t>
+  </si>
+  <si>
+    <t>Felipe Castañeda Salamanca</t>
+  </si>
+  <si>
+    <t>La teoría de la verdad de Anselmo de Canterbury</t>
+  </si>
+  <si>
+    <t>Maximiliana Prada Dusán</t>
+  </si>
+  <si>
+    <t>Universidad Pedagógica Nacional</t>
+  </si>
+  <si>
+    <t>Filosofía de la música en san Agustín: el papel de la práctica musical en el acercamiento a realidades inmateriales</t>
+  </si>
+  <si>
+    <t>José Higuera</t>
+  </si>
+  <si>
+    <t>COLCIENCIAS/Universidad Nacional de Colombia</t>
+  </si>
+  <si>
+    <t>El Arte luliano y la recepción medieval de los Tópicos de Aristóteles</t>
+  </si>
+  <si>
+    <t>Jörg Alejandro Tellkamp</t>
+  </si>
+  <si>
+    <t>Univrsidad Autónoma Metropolitana (México DF)</t>
+  </si>
+  <si>
+    <t>El papel de la demostración en el pensamiento político de Marsilio de Padua</t>
+  </si>
+  <si>
+    <t>Rubiel Ramírez Restrepo</t>
+  </si>
+  <si>
+    <t>Universidad del Quindío</t>
+  </si>
+  <si>
+    <t>Horizonte para una ética ambiental</t>
+  </si>
+  <si>
+    <t>Filosofías ambientalistas y animalistas</t>
+  </si>
+  <si>
+    <t>Juan Camilo Cajigas Ph.D. (c)</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de Colombia.</t>
+  </si>
+  <si>
+    <t>Enredos Telúricos</t>
+  </si>
+  <si>
+    <t>Ana Patricia Noguera de Echeverry</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de Colombia, Sede Manizales</t>
+  </si>
+  <si>
+    <t>(sin titulo)</t>
+  </si>
+  <si>
+    <t>Gabriel Ocampo S.</t>
+  </si>
+  <si>
+    <t>La aspiración ética ricœuriana y la solidaridad social y ambiental</t>
+  </si>
+  <si>
+    <t>José Reinel Sánchez</t>
+  </si>
+  <si>
+    <t>EL FUTURO DEL AMBIENTALISMO: ENTRE EL PRINCIPIO DE LA LEY DE MURPHY Y EL MITO DE CASANDRA</t>
+  </si>
+  <si>
+    <t>Ysis Vélez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA PHRÓNESIS EN LOS ANIMALES </t>
+  </si>
+  <si>
+    <t>Jorge Oseguera</t>
+  </si>
+  <si>
+    <t>Florida State University</t>
+  </si>
+  <si>
+    <t>Socavando el Constructivismo Evaluativo</t>
+  </si>
+  <si>
+    <t>Etica evolucionista</t>
+  </si>
+  <si>
+    <t>Paul Rezkalla</t>
+  </si>
+  <si>
+    <t>"Debunking Has Not Been Debunked"</t>
+  </si>
+  <si>
+    <t>Jorge Sierra</t>
+  </si>
+  <si>
+    <t>Facultad de ciencias Humanas, Universidad Autónoma de Colombia</t>
+  </si>
+  <si>
+    <t>¿Puede el argumento evolutivo desacreditador contra el ateísmo naturalista demostrar la falsedad del dilema darwinista contra el realismo normativo?</t>
+  </si>
+  <si>
+    <t>Victor Emilio Parra</t>
+  </si>
+  <si>
+    <t>Departamento de Filosofía, Universidad Nacional de Colombia</t>
+  </si>
+  <si>
+    <t>Sobre el vacío explicativo en la estrategia de desacreditación de la moral de Richard Joyce</t>
+  </si>
+  <si>
+    <t>Federico Guillermo Serrano López</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una densa trama de bagatelas. Una reflexión sobre la obra ensayística de Hernando Téllez </t>
+  </si>
+  <si>
+    <t>Simposio sobre pensamiento colombiano</t>
+  </si>
+  <si>
+    <t>Yelitza Marcela Forero Reyes</t>
+  </si>
+  <si>
+    <t>Pontificia Universidad Javeriana</t>
+  </si>
+  <si>
+    <t>Libertad de imprenta: un desafío para el pensamiento liberal colombiano del siglo XIX</t>
+  </si>
+  <si>
+    <t>Énver Joel Torregroza Lara</t>
+  </si>
+  <si>
+    <t>Universidad Colegio Mayor de Nuestra Señora del Rosario</t>
+  </si>
+  <si>
+    <t>Cómo leer a Nicolás Gómez Dávila: claves para interpretar la filosofía de Textos I.</t>
+  </si>
+  <si>
+    <t>Santiago Castro-Gómez</t>
+  </si>
+  <si>
+    <t>Balance crítico de la filosofía política en Colombia</t>
+  </si>
+  <si>
+    <t>Numas Armando Gil Olivera</t>
+  </si>
+  <si>
+    <t>Universidad del Atlántico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Carrillo Filosofo- Educador </t>
+  </si>
+  <si>
+    <t>Óscar Saldarriaga Vélez</t>
+  </si>
+  <si>
+    <t>La filosofía como "disciplina escolar" en Colombia. Siglos XVII a XX: una hipótesis</t>
+  </si>
+  <si>
+    <t>Leonardo Tovar</t>
+  </si>
+  <si>
+    <t>Universidad Santo Tomás</t>
+  </si>
+  <si>
+    <t>Tras la justicia en la filosofía política actual en Colombia</t>
+  </si>
+  <si>
+    <t>Juan Fernando Mejía</t>
+  </si>
+  <si>
+    <t>En todo reaccionario Platón resucita:
+trazos para un retrato de Nicolás Gómez Dávila como pensador reaccionario</t>
+  </si>
+  <si>
+    <t>Rubén Sierra Mejía</t>
+  </si>
+  <si>
+    <t>Escritos de juventud de Danilo Cruz Vélez</t>
+  </si>
+  <si>
+    <t>Jorge Aurelio Díaz</t>
+  </si>
+  <si>
+    <t>Universidad Católica de Colombia</t>
+  </si>
+  <si>
+    <t>Sobre la publicación de las Obras completas de Danilo Cruz Vélez</t>
+  </si>
+  <si>
+    <t>Amalia Boyer</t>
+  </si>
+  <si>
+    <t>Universidad del Rosario Miembro de la SCF</t>
+  </si>
+  <si>
+    <t>Ética, cuidado y duelo</t>
+  </si>
+  <si>
+    <t>Subjetivación y experimentación estética</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estética de la existencia y política en Michel Foucault. </t>
+  </si>
+  <si>
+    <t>Adolfo Chaparro</t>
+  </si>
+  <si>
+    <t>Topologías del pensamiento</t>
+  </si>
+  <si>
+    <t>Gustavo Chirolla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biopolítica y epigenética: la impronta biológica </t>
+  </si>
+  <si>
+    <t>Camille Louis</t>
+  </si>
+  <si>
+    <t>Universidad de Paris 8</t>
+  </si>
+  <si>
+    <t>Del Arte Político a la estética disensual: el camino del “inventor-artista”</t>
+  </si>
+  <si>
+    <t>El decir veraz y la alteración de la vida: discurso, cuerpo, afectos.</t>
+  </si>
+  <si>
+    <t>Laura Quintana y Catalina Cortés-severino</t>
+  </si>
+  <si>
+    <t>Desde la imagen, el sonido y el fragmento: pensar lo impensado de la cotidianidad</t>
+  </si>
+  <si>
+    <t>Adrián Perea</t>
+  </si>
+  <si>
+    <t>Universidad Distrital Franciso José de Caldas</t>
+  </si>
+  <si>
+    <t>Critica, ficción y experimentación. La cuestión de la libertad en Foucault.</t>
+  </si>
+  <si>
+    <t>Miguel Ángel Pérez</t>
+  </si>
+  <si>
+    <t>Emoción y pensamiento: el caso de la sorpresa</t>
+  </si>
+  <si>
+    <t>Emociones y razón práctica</t>
+  </si>
+  <si>
+    <t>Juan Samuel Santos Castro</t>
+  </si>
+  <si>
+    <t>La ética de la apariencia y la posibilidad de una sociedad justa: una propuesta de inspiración humeana</t>
+  </si>
+  <si>
+    <t>Gustavo Gómez Pérez</t>
+  </si>
+  <si>
+    <t>Afectividad y política. Reflexiones sobre el Gorgias de Platón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ángela Calvo de Saavedra </t>
+  </si>
+  <si>
+    <t>Sensibilidad moral e inclusión del otro</t>
+  </si>
+  <si>
+    <t>María Paula Sabogal</t>
+  </si>
+  <si>
+    <t>Valor moral, casos marginales y percepciones corporales</t>
+  </si>
+  <si>
+    <t>Juan Pablo Hernández Betancur</t>
+  </si>
+  <si>
+    <t>El papel de la racionalidad en el amor y la moralidad. Contra el conativismo.</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo Sanabria B.</t>
+  </si>
+  <si>
+    <t>Profesor Asociado, Departamento de Humanidades, Universidad Jorge Tadeo Lozano</t>
+  </si>
+  <si>
+    <t>Cuerpo y pregunta: Experiencias de formación para la ciudadanía a partir de un enseñar como preguntar</t>
+  </si>
+  <si>
+    <t>Arte y educación</t>
+  </si>
+  <si>
+    <t>Álvaro Corral Cuartas</t>
+  </si>
+  <si>
+    <t>Profesor titular, Universidad Jorge Tadeo Lozano</t>
+  </si>
+  <si>
+    <t>De los aportes de la educación artística al fortalecimiento del espíritu crítico</t>
+  </si>
+  <si>
+    <t>Beatriz Elena Múnera Barbosa</t>
+  </si>
+  <si>
+    <t>Profesora titular, Facultad de Artes y Diseño, Universidad Jorge Tadeo Lozano</t>
+  </si>
+  <si>
+    <t>Educándonos con y desde la fotografía</t>
+  </si>
+  <si>
+    <t>Uriel Cárdenas</t>
+  </si>
+  <si>
+    <t>Profesor asociado, Departamento de Humanidades, Universidad Jorge Tadeo Lozano/Asesor Viceministerio de Educación Superior, Ministerio de Educación Nacional</t>
+  </si>
+  <si>
+    <t>Ciencia vs. arte: Un dualismo derivado de ciertas prácticas educativas</t>
+  </si>
+  <si>
+    <t>María Mercedes Durán</t>
+  </si>
+  <si>
+    <t>Departamento de Humanidades, Universidad Jorge Tadeo Lozano</t>
+  </si>
+  <si>
+    <t>Maneras de entender el arte en la educación</t>
+  </si>
+  <si>
+    <t>Palabrerío y empatía. SobreMemoria por correspondenciade Emma Reyes</t>
+  </si>
+  <si>
+    <t>Andrade Schumann</t>
+  </si>
+  <si>
+    <t>Docente Universidad Javeriana</t>
+  </si>
+  <si>
+    <t>La cartografía del lenguaje a partir de la argumentación como tríptico</t>
+  </si>
+  <si>
+    <t>Lenguaje, Retórica y Argumentación</t>
+  </si>
+  <si>
+    <t>Cárdenas Luz Gloria</t>
+  </si>
+  <si>
+    <t>Docente Universidad de Antioquia</t>
+  </si>
+  <si>
+    <t>Esclavitud, ciudadanía y recursos retóricos en Aristóteles</t>
+  </si>
+  <si>
+    <t>Cortizzos Carlos</t>
+  </si>
+  <si>
+    <t>Docente Universidad de Bogotá Jorge Tadeo Lozano</t>
+  </si>
+  <si>
+    <t>La unidad de las virtudes argumentativas</t>
+  </si>
+  <si>
+    <t>Gómez Julder</t>
+  </si>
+  <si>
+    <t>Docente Universdiad Eafit</t>
+  </si>
+  <si>
+    <t>Estructura de la argumentación práctica</t>
+  </si>
+  <si>
+    <t>Marrero Danny y Niño Douglas</t>
+  </si>
+  <si>
+    <t>Departamento de altos estudios fiscalía general de la nación</t>
+  </si>
+  <si>
+    <t>El contextualismo argumentativo: Una perspectiva centrada en el agente</t>
+  </si>
+  <si>
+    <t>Mercado Heiner</t>
+  </si>
+  <si>
+    <t>Docente Universidad Eafit</t>
+  </si>
+  <si>
+    <t>La re-descripción retórica de las acciones</t>
+  </si>
+  <si>
+    <t>Posada Pedro</t>
+  </si>
+  <si>
+    <t>Docente Universidad del Valle</t>
+  </si>
+  <si>
+    <t>Normas éticas y valores religiosos (Los argumentos en la formación  del criterio moral)</t>
+  </si>
+  <si>
+    <t>Santibáñez Cristián</t>
+  </si>
+  <si>
+    <t>Coordinador de Investigación, Centro de Estudios de Argumentación y Razonamiento. Universidad Diego Portales.</t>
+  </si>
+  <si>
+    <t>El engaño generalizado: la preferencia por prevaricar analizada argumentativamente</t>
+  </si>
+  <si>
+    <t>Tindale Christopher</t>
+  </si>
+  <si>
+    <t>Professor University of Windsor</t>
+  </si>
+  <si>
+    <t>Narratives and the Concept of Argument</t>
+  </si>
+  <si>
+    <t>Raul Enrique Puello Arrieta</t>
+  </si>
+  <si>
+    <t>Docente Universidad de Cartagena</t>
+  </si>
+  <si>
+    <t>Ciudadanía retórica y enseñanza de la argumentación</t>
+  </si>
+  <si>
+    <t>Gerardo Rmírez Vidal</t>
+  </si>
+  <si>
+    <t>Docente Universidad Nacional Autónoma de México</t>
+  </si>
+  <si>
+    <t>El discurso retórico en los espacios democráticos</t>
+  </si>
+  <si>
+    <t>Jorge Dávila</t>
+  </si>
+  <si>
+    <t>Asocición Colombiana de Psiquiatría</t>
+  </si>
+  <si>
+    <t>Variantes de hiperreflexividad en el Trastorno Obsesivo y en las Psicosis</t>
+  </si>
+  <si>
+    <t>VI SIMPOSIO COLOMBIANO DE FILOSOFÍA Y PSIQUIATRÍA: Enfoques fenomenológicos (1)</t>
+  </si>
+  <si>
+    <t>Flor Emilce Cely</t>
+  </si>
+  <si>
+    <t>Universidad El Bosque</t>
+  </si>
+  <si>
+    <t>¿Apatheia, Ataraxia, Anhedonia? Distinciones desde el punto de vista fenomenológico</t>
+  </si>
+  <si>
+    <t>Andrés Villamil</t>
+  </si>
+  <si>
+    <t>Constituyendo el sentido de anormalidad. De la extrañeza cotidiana a la experiencia patológica</t>
+  </si>
+  <si>
+    <t>Juan J. Botero</t>
+  </si>
+  <si>
+    <t>Aproximación a una terapia corpo-cinética: recuperación del sentido cinestético</t>
+  </si>
+  <si>
+    <t>Luisa Fernanda Barrero</t>
+  </si>
+  <si>
+    <t>sidad Nacional - Doctorado en Filosofía</t>
+  </si>
+  <si>
+    <t>Consideraciones sobre la intersubjetividad en la Anorexia: Rupturas intersubjetivas a partir de la forma en que el cuerpo se siente a sí mismo</t>
+  </si>
+  <si>
+    <t>Camilo Sánchez</t>
+  </si>
+  <si>
+    <t>El sentido de propiedad, la unidad de la consciencia e implicaciones psicopatológicas</t>
+  </si>
+  <si>
+    <t>Diana Marcela Pérez</t>
+  </si>
+  <si>
+    <t>Reflexión sobre el sentido de agencia en Gallagher: el problema de la causalidad y sus límites en la psiquiatría</t>
+  </si>
+  <si>
+    <t>María Clara Garavito</t>
+  </si>
+  <si>
+    <t>Indagaciones fenomenológicas por el papel de los otros en la co-constitución de mundo primordial: Aportes al autismo y depresión infantil</t>
+  </si>
+  <si>
+    <t>Diana Matallana et al.</t>
+  </si>
+  <si>
+    <t>Universidad Javeriana - Varios</t>
+  </si>
+  <si>
+    <t>El self Corporal y la ínsula</t>
+  </si>
+  <si>
+    <t>Ricardo Arcos-Palma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La corporeidad del lenguaje: Palabra y acción. </t>
+  </si>
+  <si>
+    <t>Filosofía del performance y su contemporaneidad</t>
+  </si>
+  <si>
+    <t>Lucas Ospina</t>
+  </si>
+  <si>
+    <t>Universdad de Los Andes</t>
+  </si>
+  <si>
+    <t>Un artista de hambre</t>
+  </si>
+  <si>
+    <t>Universidad Jorge Tadeo Lozano</t>
+  </si>
+  <si>
+    <t>La pregunta por el modo de ser de la obra de arte performática</t>
+  </si>
+  <si>
+    <t>Juan Carlos Guerrero Hernández</t>
+  </si>
+  <si>
+    <t>Reflexión histórica sobre la con-temporaneidad de filosofía y performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio Cesar Vargas </t>
+  </si>
+  <si>
+    <t>Universidad del Valle</t>
+  </si>
+  <si>
+    <t>Sobre la intencionalidad y el conocimiento en Duns Scotus</t>
+  </si>
+  <si>
+    <t>Lenguaje y comprensión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Escobar </t>
+  </si>
+  <si>
+    <t>Magíster en Filosofía Universidad del Valle</t>
+  </si>
+  <si>
+    <t>La representación como el fundamento metafísico de la época moderna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julián Fernando Trujillo Amaya </t>
+  </si>
+  <si>
+    <t>Pragmaticismo, acción, hábito e interpretante último</t>
+  </si>
+  <si>
+    <t>Nelson Jair Cuchumbé Holguín</t>
+  </si>
+  <si>
+    <t>Aproximación a la relación lenguaje y comprensión desde filosofía hermenéutica de Gadamer</t>
+  </si>
+  <si>
+    <t>John Alexander Giraldo Chavarriaga</t>
+  </si>
+  <si>
+    <t>La Lengua española como medio de comprensión filosófica</t>
+  </si>
+  <si>
+    <t>LUIS ZUÑIGA HERAZO</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE CARTAGENA</t>
+  </si>
+  <si>
+    <t>EDUCACIÓN PARA LA MEMORIA Y EL RECONOCIMENTO SOCIAL</t>
+  </si>
+  <si>
+    <t>FILOSOFÍA Y EDUCACIÓN PARA LA PAZ</t>
+  </si>
+  <si>
+    <t>INGRID SILVA ARROYO</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD TECNOLÓGICA DE BOLÍVAR</t>
+  </si>
+  <si>
+    <t>EDUCAR EN EMOCIONES PARA LA CIUDADANÍA DEMOCRÁTICA</t>
+  </si>
+  <si>
+    <t>GABRIEL VARGAS DUQUE</t>
+  </si>
+  <si>
+    <t>FILOSOFÍA Y PAZ</t>
+  </si>
+  <si>
+    <t>HAROLD VALENCIA LÓPEZ</t>
+  </si>
+  <si>
+    <t>CONFLICTO, PAZ IMPERFECTA Y EDUCACIÓN</t>
+  </si>
+  <si>
+    <t>Dirk Evers</t>
+  </si>
+  <si>
+    <t>Martin-Luther-Universität Halle-Wittenberg</t>
+  </si>
+  <si>
+    <t>Incarnation and Faith in an Evolutionary Framework</t>
+  </si>
+  <si>
+    <t>Filosofía, ciencia y religión</t>
+  </si>
+  <si>
+    <t>Susana Gómez Gutiérrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Javeriana </t>
+  </si>
+  <si>
+    <t>La coherencia en el marco de algunas discusiones sobre la racionalidad de la creencia religiosa</t>
+  </si>
+  <si>
+    <t>Luis Fernando Múnera</t>
+  </si>
+  <si>
+    <t>Construcción social y el carácter creado de la persona humana</t>
+  </si>
+  <si>
+    <t>María Belén Tell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Santo Tomás </t>
+  </si>
+  <si>
+    <t>En torno al problema fe-razón: la conciencia-en-relación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bair Puig </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad del Rosario </t>
+  </si>
+  <si>
+    <t>Aplicabilidad del concepto de emergencia en la filosofía budista</t>
+  </si>
+  <si>
+    <t>Omar Contreras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Nacional </t>
+  </si>
+  <si>
+    <t>Mística y metafísica, una aproximación nietzscheana</t>
+  </si>
+  <si>
+    <t>Luz Marina Duque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad del Valle </t>
+  </si>
+  <si>
+    <t>La filosofía como puente entre la ciencia y la religión</t>
+  </si>
+  <si>
+    <t>Carlos Miguel Gómez</t>
+  </si>
+  <si>
+    <t>"En el principio fue la acción": Aporías de un mito moderno sobre el origen del sentido</t>
+  </si>
+  <si>
+    <t>Carlos Cardona</t>
+  </si>
+  <si>
+    <t>Kepler: el papel de la trinidad en el origen de la ciencia moderna</t>
+  </si>
+  <si>
+    <t>ORIGEN RELIGIOSO DEL CONCEPTO DE AUTONOMÍA</t>
+  </si>
+  <si>
+    <t>Luisa Monsalve Medina P.H.D</t>
+  </si>
+  <si>
+    <t>Programa Filosofía Universidad Externado</t>
+  </si>
+  <si>
+    <t>Emociones Morales Dilemas e Infortunio</t>
+  </si>
+  <si>
+    <t>Emociones, Voluntad y Racionalidad.</t>
+  </si>
+  <si>
+    <t>Juan Pablo Bermudez P.H.D</t>
+  </si>
+  <si>
+    <t>Programa de Filosofía Universidad Externado</t>
+  </si>
+  <si>
+    <t>¿ Que es el Comportamiento Automático ?</t>
+  </si>
+  <si>
+    <t>Jennifer Andrea Rivera Magister</t>
+  </si>
+  <si>
+    <t>Programa de Filosifía Universidad Externado</t>
+  </si>
+  <si>
+    <t>El Deseo Como Voluntad en Gilles Deleuze</t>
+  </si>
+  <si>
+    <t>Sebastián Pereira P.H.D</t>
+  </si>
+  <si>
+    <t>Universidad San buenaventura</t>
+  </si>
+  <si>
+    <t>Empatía y moralidad.</t>
+  </si>
+  <si>
+    <t>Jorge Sierra P.H.D</t>
+  </si>
+  <si>
+    <t>universidad Autónoma</t>
+  </si>
+  <si>
+    <t>Lealtad ampliada, sentimientos morales y derechos animales</t>
+  </si>
+  <si>
+    <t>Adryan Fabrizio Pineda Magister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universdiad Autónoma </t>
+  </si>
+  <si>
+    <t>La subjetividad o la estética de lo inacabable</t>
+  </si>
+  <si>
+    <t>Lucy carrillo</t>
+  </si>
+  <si>
+    <t>Universidad de Antioquia</t>
+  </si>
+  <si>
+    <t>Thomas Hobbes,pasiones, razones y filosofia moral</t>
+  </si>
+  <si>
+    <t>ILZE PETRONI</t>
   </si>
   <si>
     <t xml:space="preserve">UNIVERSIDAD NACIONAL DE CÓRDOBA (ARGENTINA) </t>
   </si>
   <si>
-    <t>ILZE PETRONI</t>
+    <t>Resignificar la estética: Prácticas de gestión autónoma de arte en y desde américa latina</t>
   </si>
   <si>
     <t>FILOSOFÍA DEL ARTE Y ESTÉTICA: Repensando la Educación Estética en América Latina y el Caribe</t>
-  </si>
-  <si>
-    <t>Resignificar la estética: Prácticas de gestión autónoma de arte en y desde américa latina</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD DE LA PLATA-ARGENTINA. Gerardo Guzmán</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -49,16 +1010,22 @@
 </t>
   </si>
   <si>
+    <t>UNIVERSIDAD DE LA PLATA-ARGENTINA. Gerardo Guzmán</t>
+  </si>
+  <si>
     <t>La Alografía de la Recepción. Intérpretes y Públicos</t>
   </si>
   <si>
+    <t>ANTONIO ORTIZ-GRITON (MEXICO)</t>
+  </si>
+  <si>
     <t>Antonio Gritón es Director del Centro Cultural San Rafael, filósofo, artista y pedagogo autor de varios libros entre los que destacamos la colección Artes Visuales, editada en tres volúmenes. Estuvo vinculado a los lugares de vanguardias del arte en ciudad de México como la Quiñonera. Ha sido invitado como ponente a varios países de América Latina.</t>
   </si>
   <si>
-    <t>ANTONIO ORTIZ-GRITON (MEXICO)</t>
-  </si>
-  <si>
     <t xml:space="preserve">La educación artística en América Latina. Historia de una experiencia. </t>
+  </si>
+  <si>
+    <t>RICARDO MALAGÓN (COLOMBIA)</t>
   </si>
   <si>
     <t xml:space="preserve">UNIVERSIDAD JORGE TADEO LOZANO. Ricardo Malagón estudia el Programa de Doctorado en Artes. Facultad de Artes Universidad de Antioquía (candidato a Doctor). 
@@ -70,28 +1037,28 @@
 </t>
   </si>
   <si>
-    <t>RICARDO MALAGÓN (COLOMBIA)</t>
-  </si>
-  <si>
     <t>La Escuela de Bellas Artes y la creación de un imaginario del academicismo en Colombia".</t>
   </si>
   <si>
+    <t>Rodolfo Wenger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rodolfo Wenger Calvo es Docente-Investigador (Profesor Asociado) del Área de Estética y Filosofía del Arte del Programa de Filosofía de la Facultad de Ciencias Humanas  de la Universidad del Atlántico. Doctorando en Filosofía de la Escuela Internacional de Doctorado de la UNED, Madrid- España. Máster en Filosofía Teórica y Práctica –Especialidad Historia de la Filosofía y Pensamiento Contemporáneo de la UNED. Magíster en Análisis de Problemáticas Contemporáneas de la Universidad Externado de Colombia y el IAED, bajo el auspicios del Instituto de Estudios Políticos de París. Ensayista y conferencista sobre diversos temas relacionados con la estética, y en particular, con las posibilidades de sinergia entre el mundo de la imagen, el arte y el pensamiento filosófico. Autor del libro: Arte y conocimiento. Ensayos de Filosofía del arte, 2011, Barranquilla, Universidad del Atlántico y varios artículos publicados en revistas especializadas. Miembro del Grupo de Investigación AMAUTA de la Facultad de Ciencias Humanas de la Universidad del Atlántico y de la International Association for Aesthetics (IAA). </t>
   </si>
   <si>
-    <t>Rodolfo Wenger</t>
-  </si>
-  <si>
     <t>Los presupuestos educativos y políticos de la «emancipación estética» en la filosofía de J. Rancière</t>
   </si>
   <si>
+    <t>ELKIN RUBIANO (COLOMBIA).</t>
+  </si>
+  <si>
     <t>UNIVERSIDAD JORGE TADEO LOZANO. Elkin Rubiano es Sociólogo de la Universidad Nacional de Colombia, magister en comunicación de la Pontificia Universidad Javeriana y especialista en diseño urbano de la Universidad Jorge Tadeo Lozano. Sus áreas de trabajo se concentran en la teoría estética, la crítica cultural y las sociologías urbana y del arte. Pertenece al grupo de investigación Reflexión y creación artísticas contemporáneas. Actualmente es profesor asociado de tiempo completo de la Universidad Jorge Tadeo Lozano en la maestría en Estética e Historia del arte y adelanta estudios de doctorado en Historia del arte en Colombia y Latinoamérica en la Universidad Nacional de Colombia. Sus textos más relevantes se pueden consultar en:  http://utadeo.academia.edu/ElkinRubiano</t>
   </si>
   <si>
-    <t>ELKIN RUBIANO (COLOMBIA).</t>
-  </si>
-  <si>
     <t>El juego como categoría estética: entre la formalidad teórica y las posibilidades críticas</t>
+  </si>
+  <si>
+    <t>MARIA CRISTINA (COLOMBIA)</t>
   </si>
   <si>
     <t xml:space="preserve">UNIVERSIDAD DE MANIZALES. María Cristina Sanchez es candidata en el Doctorado en Ciencias Sociales. Niñez y Juventud. Universidad de Manizales y CINDE. es Investigadora del Euro-Mediterranean University Institute (EMUI)
@@ -109,10 +1076,10 @@
 </t>
   </si>
   <si>
-    <t>MARIA CRISTINA (COLOMBIA)</t>
-  </si>
-  <si>
     <t>Prácticas de la jovialidad: indagaciones por las políticas estéticas</t>
+  </si>
+  <si>
+    <t>MARIA CRISTINA FUKELMAN (ARGENTINA)</t>
   </si>
   <si>
     <t xml:space="preserve">UNIVERSIDAD DE LA PLATA. Magíster en Teoría y Estética de las Artes. UNLP. Profesora y Licenciada en Historia de las Artes Plásticas, Facultad de Bellas Artes, UNLP
@@ -121,10 +1088,10 @@
 </t>
   </si>
   <si>
-    <t>MARIA CRISTINA FUKELMAN (ARGENTINA)</t>
-  </si>
-  <si>
     <t>Campo del arte y estética en la formación artística en Argentina.</t>
+  </si>
+  <si>
+    <t>RICARDO ARCOS-PALMA (COLOMBIA)</t>
   </si>
   <si>
     <t xml:space="preserve">UNIVERSIDAD NACIONAL DE COLOMBIA. Ricardo Arcos-Palma es docente investigador asociado en dedicación exclusiva de la Facultad de Artes de la Universidad Nacional de Colombia. PhD en Artes y Ciencias del Arte mención filosofía del arte. Magister en estética y filosofía del arte por la Universidad de la Sorbona. Es miembro de la SCF. Dentro de sus principales publicaciones están: 
@@ -150,220 +1117,34 @@
 </t>
   </si>
   <si>
-    <t>RICARDO ARCOS-PALMA (COLOMBIA)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jacques Rancière: educación estética y emancipación. </t>
   </si>
   <si>
-    <t>Fiscalía General de la Nación</t>
-  </si>
-  <si>
-    <t>Danny Marrero</t>
-  </si>
-  <si>
-    <t>Epistemología Social: Testimonio, Intensionalidad Colectiva y la Estructura Social de la Ciencia</t>
-  </si>
-  <si>
-    <t>Una propuesta para disolver los dilemas del conocimiento basado en testimonio</t>
-  </si>
-  <si>
-    <t>Universidad de los Andes</t>
-  </si>
-  <si>
-    <t>Manuela Fernández Pinto</t>
-  </si>
-  <si>
-    <t>Limitaciones del giro naturalista: La epistemología social como un caso de imperialismo científico</t>
-  </si>
-  <si>
-    <t>Andrés Páez</t>
-  </si>
-  <si>
-    <t>El rol epistémico de la reputación en la ciencia</t>
-  </si>
-  <si>
-    <t>Universidad Jorge Tadeo Lozano</t>
-  </si>
-  <si>
-    <t>Douglas Niño</t>
-  </si>
-  <si>
-    <t>Trasfondo, generación terreno común y normatividad: una propuesta</t>
-  </si>
-  <si>
-    <t>Alejandro Vesga</t>
-  </si>
-  <si>
-    <t>Razones para actuar y razones para creer: el papel de la normatividad práctica en la epistemología del testimonio</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>LUIS ZUÑIGA HERAZO</t>
-  </si>
-  <si>
-    <t>FILOSOFÍA Y EDUCACIÓN PARA LA PAZ</t>
-  </si>
-  <si>
-    <t>EDUCACIÓN PARA LA MEMORIA Y EL RECONOCIMENTO SOCIAL</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD TECNOLÓGICA DE BOLÍVAR</t>
-  </si>
-  <si>
-    <t>INGRID SILVA ARROYO</t>
-  </si>
-  <si>
-    <t>EDUCAR EN EMOCIONES PARA LA CIUDADANÍA DEMOCRÁTICA</t>
-  </si>
-  <si>
-    <t>GABRIEL VARGAS DUQUE</t>
-  </si>
-  <si>
-    <t>FILOSOFÍA Y PAZ</t>
-  </si>
-  <si>
-    <t>HAROLD VALENCIA LÓPEZ</t>
-  </si>
-  <si>
-    <t>CONFLICTO, PAZ IMPERFECTA Y EDUCACIÓN</t>
-  </si>
-  <si>
-    <t>Docente Universidad Javeriana</t>
-  </si>
-  <si>
-    <t>Andrade Schumann</t>
-  </si>
-  <si>
-    <t>Lenguaje, Retórica y Argumentación</t>
-  </si>
-  <si>
-    <t>La cartografía del lenguaje a partir de la argumentación como tríptico</t>
-  </si>
-  <si>
-    <t>Docente Universidad de Antioquia</t>
-  </si>
-  <si>
-    <t>Cárdenas Luz Gloria</t>
-  </si>
-  <si>
-    <t>Esclavitud, ciudadanía y recursos retóricos en Aristóteles</t>
-  </si>
-  <si>
-    <t>Docente Universidad de Bogotá Jorge Tadeo Lozano</t>
-  </si>
-  <si>
-    <t>Cortizzos Carlos</t>
-  </si>
-  <si>
-    <t>La unidad de las virtudes argumentativas</t>
-  </si>
-  <si>
-    <t>Docente Universdiad Eafit</t>
-  </si>
-  <si>
-    <t>Gómez Julder</t>
-  </si>
-  <si>
-    <t>Estructura de la argumentación práctica</t>
-  </si>
-  <si>
-    <t>Departamento de altos estudios fiscalía general de la nación</t>
-  </si>
-  <si>
-    <t>Marrero Danny y Niño Douglas</t>
-  </si>
-  <si>
-    <t>El contextualismo argumentativo: Una perspectiva centrada en el agente</t>
-  </si>
-  <si>
-    <t>Docente Universidad Eafit</t>
-  </si>
-  <si>
-    <t>Mercado Heiner</t>
-  </si>
-  <si>
-    <t>La re-descripción retórica de las acciones</t>
-  </si>
-  <si>
-    <t>Docente Universidad del Valle</t>
-  </si>
-  <si>
-    <t>Posada Pedro</t>
-  </si>
-  <si>
-    <t>Normas éticas y valores religiosos (Los argumentos en la formación  del criterio moral)</t>
-  </si>
-  <si>
-    <t>Coordinador de Investigación, Centro de Estudios de Argumentación y Razonamiento. Universidad Diego Portales.</t>
-  </si>
-  <si>
-    <t>Santibáñez Cristián</t>
-  </si>
-  <si>
-    <t>El engaño generalizado: la preferencia por prevaricar analizada argumentativamente</t>
-  </si>
-  <si>
-    <t>Professor University of Windsor</t>
-  </si>
-  <si>
-    <t>Tindale Christopher</t>
-  </si>
-  <si>
-    <t>Narratives and the Concept of Argument</t>
-  </si>
-  <si>
-    <t>Docente Universidad de Cartagena</t>
-  </si>
-  <si>
-    <t>Raul Enrique Puello Arrieta</t>
-  </si>
-  <si>
-    <t>Ciudadanía retórica y enseñanza de la argumentación</t>
-  </si>
-  <si>
-    <t>Docente Universidad Nacional Autónoma de México</t>
-  </si>
-  <si>
-    <t>Gerardo Rmírez Vidal</t>
-  </si>
-  <si>
-    <t>El discurso retórico en los espacios democráticos</t>
+    <t>Roberto J. Walton</t>
   </si>
   <si>
     <t>Academia Nacional de Ciencias de Buenos Aires</t>
   </si>
   <si>
-    <t>Roberto J. Walton</t>
+    <t>La facticidad como problema metafísico.</t>
   </si>
   <si>
     <t>Fenomenología y Metafísica.</t>
   </si>
   <si>
-    <t>La facticidad como problema metafísico.</t>
-  </si>
-  <si>
-    <t>Universidad del Valle</t>
-  </si>
-  <si>
     <t>Julio César Vargas Bejarano</t>
   </si>
   <si>
     <t>Dios como idea y experiencia de Dios en la fenomenología de Husserl</t>
   </si>
   <si>
+    <t>Pedro Juan Aristizábal Hoyos</t>
+  </si>
+  <si>
     <t>Universidad Tecnológica de Pereira</t>
   </si>
   <si>
-    <t>Pedro Juan Aristizábal Hoyos</t>
-  </si>
-  <si>
     <t>Fenomenología y Metafísica. ¿Un diálogo ineludible?</t>
-  </si>
-  <si>
-    <t>Universidad Pedagógica Nacional</t>
   </si>
   <si>
     <t>Germán Vargas Guillén</t>
@@ -374,21 +1155,21 @@
 </t>
   </si>
   <si>
+    <t>Graciela Ralón de Walton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universidad Nacional 
 de San Martín
 </t>
   </si>
   <si>
-    <t>Graciela Ralón de Walton</t>
-  </si>
-  <si>
     <t>La estructura metafísica de la carne: su expresión en la pintura</t>
   </si>
   <si>
+    <t>Juan Manuel Cuartas Restrepo</t>
+  </si>
+  <si>
     <t>Universidad Eafit</t>
-  </si>
-  <si>
-    <t>Juan Manuel Cuartas Restrepo</t>
   </si>
   <si>
     <t xml:space="preserve">Merleau-Ponty: El cuerpo como ser sexuado, disertación sobre una 
@@ -402,255 +1183,93 @@
     <t>La dispersión: una posible lectura fenomenológica, en clave a-subjetiva, de Walter Benjamin.</t>
   </si>
   <si>
-    <t>Universidad del Rosario Miembro de la SCF</t>
-  </si>
-  <si>
-    <t>Amalia Boyer</t>
-  </si>
-  <si>
-    <t>Subjetivación y experimentación estética</t>
-  </si>
-  <si>
-    <t>Ética, cuidado y duelo</t>
-  </si>
-  <si>
-    <t>Universidad Javeriana</t>
-  </si>
-  <si>
-    <t>Santiago Castro-Gómez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estética de la existencia y política en Michel Foucault. </t>
-  </si>
-  <si>
-    <t>Universidad del Rosario</t>
-  </si>
-  <si>
-    <t>Adolfo Chaparro</t>
-  </si>
-  <si>
-    <t>Topologías del pensamiento</t>
-  </si>
-  <si>
-    <t>Gustavo Chirolla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biopolítica y epigenética: la impronta biológica </t>
-  </si>
-  <si>
-    <t>Universidad de Paris 8</t>
-  </si>
-  <si>
-    <t>Camille Louis</t>
-  </si>
-  <si>
-    <t>Del Arte Político a la estética disensual: el camino del “inventor-artista”</t>
-  </si>
-  <si>
-    <t>Carlos Manrique</t>
-  </si>
-  <si>
-    <t>El decir veraz y la alteración de la vida: discurso, cuerpo, afectos.</t>
-  </si>
-  <si>
-    <t>Laura Quintana y Catalina Cortés-severino</t>
-  </si>
-  <si>
-    <t>Desde la imagen, el sonido y el fragmento: pensar lo impensado de la cotidianidad</t>
-  </si>
-  <si>
-    <t>Universidad Distrital Franciso José de Caldas</t>
-  </si>
-  <si>
-    <t>Adrián Perea</t>
-  </si>
-  <si>
-    <t>Critica, ficción y experimentación. La cuestión de la libertad en Foucault.</t>
-  </si>
-  <si>
-    <t>Martin-Luther-Universität Halle-Wittenberg</t>
-  </si>
-  <si>
-    <t>Dirk Evers</t>
-  </si>
-  <si>
-    <t>Filosofía, ciencia y religión</t>
-  </si>
-  <si>
-    <t>Incarnation and Faith in an Evolutionary Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Javeriana </t>
-  </si>
-  <si>
-    <t>Susana Gómez Gutiérrez</t>
-  </si>
-  <si>
-    <t>La coherencia en el marco de algunas discusiones sobre la racionalidad de la creencia religiosa</t>
-  </si>
-  <si>
-    <t>Luis Fernando Múnera</t>
-  </si>
-  <si>
-    <t>Construcción social y el carácter creado de la persona humana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Santo Tomás </t>
-  </si>
-  <si>
-    <t>María Belén Tell</t>
-  </si>
-  <si>
-    <t>En torno al problema fe-razón: la conciencia-en-relación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad del Rosario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bair Puig </t>
-  </si>
-  <si>
-    <t>Aplicabilidad del concepto de emergencia en la filosofía budista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Nacional </t>
-  </si>
-  <si>
-    <t>Omar Contreras</t>
-  </si>
-  <si>
-    <t>Mística y metafísica, una aproximación nietzscheana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad del Valle </t>
-  </si>
-  <si>
-    <t>Luz Marina Duque</t>
-  </si>
-  <si>
-    <t>La filosofía como puente entre la ciencia y la religión</t>
-  </si>
-  <si>
-    <t>Carlos Miguel Gómez</t>
-  </si>
-  <si>
-    <t>"En el principio fue la acción": Aporías de un mito moderno sobre el origen del sentido</t>
-  </si>
-  <si>
-    <t>Carlos Cardona</t>
-  </si>
-  <si>
-    <t>Kepler: el papel de la trinidad en el origen de la ciencia moderna</t>
-  </si>
-  <si>
-    <t>Universidad Católica de Colombia</t>
-  </si>
-  <si>
-    <t>Jorge Aurelio Díaz</t>
-  </si>
-  <si>
-    <t>ORIGEN RELIGIOSO DEL CONCEPTO DE AUTONOMÍA</t>
-  </si>
-  <si>
-    <t>Camila de Gamboa y Juan Felipe Lozano</t>
-  </si>
-  <si>
-    <t>Retórica, responsabilidad y sentimientos morales en Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "El perdón interpersonal en el contexto de la justicia transicional". </t>
-  </si>
-  <si>
-    <t>universidad del Rosario</t>
-  </si>
-  <si>
-    <t>Maria Victoria Uribe</t>
-  </si>
-  <si>
-    <t>¿Mutar de guerrillero a ciudadano y de ciudadano a político? Solo naturalizando del daño.</t>
-  </si>
-  <si>
-    <t>Universidad de Los Andes</t>
-  </si>
-  <si>
-    <t>Catalina González</t>
-  </si>
-  <si>
-    <t>La retórica cínica de los Nule y los sentimientos morales</t>
-  </si>
-  <si>
-    <t>Federico Otálora</t>
-  </si>
-  <si>
-    <t>El carrusel de la contratación como una patente de mala fe</t>
-  </si>
-  <si>
-    <t>Universidad del Bosque</t>
-  </si>
-  <si>
-    <t>Maria Lucía Rivera</t>
-  </si>
-  <si>
-    <t>Si de algo soy culpable, fue de haberme enamorado”, cuando la ‘galantería’ y la pasión disfrazan el daño.</t>
-  </si>
-  <si>
-    <t>Universidad Pedagógica</t>
-  </si>
-  <si>
-    <t>Diana Acevedo</t>
-  </si>
-  <si>
-    <t>Cuando las palabras esconden el daño: Una lectura de Marvel Moreno</t>
-  </si>
-  <si>
-    <t>Universidad Nacional</t>
-  </si>
-  <si>
-    <t>Angela Uribe</t>
-  </si>
-  <si>
-    <t>Palabrerío y empatía. Sobre Memoria por correspondencia de Emma Reyes</t>
+    <t>Marcelo Diego Boeri Carranza</t>
+  </si>
+  <si>
+    <t>Universidad Alberto Hurtado (Santiago de Chile)</t>
+  </si>
+  <si>
+    <t>Filosofía antigua y la educación: Platón y la importancia de la educación en la formación del gobernante</t>
+  </si>
+  <si>
+    <t>Sobre los vicios y las virtudes</t>
+  </si>
+  <si>
+    <t>Alfonso Correa Motta</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de Colombia (Bogotá)</t>
+  </si>
+  <si>
+    <t>Las “virtudes” del pirrónico</t>
+  </si>
+  <si>
+    <t>Andrea Lozano-Vasquez</t>
+  </si>
+  <si>
+    <t>Universidad de los Andes (Bogotá)</t>
+  </si>
+  <si>
+    <t>Entre el pluralismo moral y el monismo psicoló́gico: la diversidad de la virtud en Aristóteles</t>
+  </si>
+  <si>
+    <t>Germán Arturo Meléndez Acuña</t>
+  </si>
+  <si>
+    <t>Nietzsche y los griegos. En torno a la valoración ético-estética del carácter</t>
+  </si>
+  <si>
+    <t>Liliana Carolina Sánchez Castro</t>
+  </si>
+  <si>
+    <t>Universidad Autónoma de Colombia (Bogotá)</t>
+  </si>
+  <si>
+    <t>La tradición peripatética de los catálogos de vicios y virtudes</t>
+  </si>
+  <si>
+    <t>Universidad Autónoma Metropolitana (México DF)</t>
+  </si>
+  <si>
+    <t>Las pasiones del virtuoso según Tomás de Aquino</t>
   </si>
   <si>
     <t>Tomás Barrero</t>
   </si>
   <si>
+    <t>¿Puedo intentar levantar su brazo?</t>
+  </si>
+  <si>
     <t>Explicación, mente y cognición</t>
   </si>
   <si>
-    <t>¿Puedo intentar levantar su brazo?</t>
-  </si>
-  <si>
     <t>Juan Camilo Toro</t>
   </si>
   <si>
     <t>El externalismo de la conciencia y la noción de constitución</t>
   </si>
   <si>
-    <t>Universidad Nacional de Colombia</t>
-  </si>
-  <si>
     <t>Andrés Buriticá</t>
   </si>
   <si>
     <t>Esquemas sensioromotrices y cognición no situada</t>
   </si>
   <si>
+    <t>Anderson Pinzón</t>
+  </si>
+  <si>
     <t>Universidad de la Sabana - Universidad Nacional de Colombia</t>
   </si>
   <si>
-    <t>Anderson Pinzón</t>
-  </si>
-  <si>
     <t>Coordinar y compartir: sobre experimentar lo mismo</t>
   </si>
   <si>
+    <t>Ángel Rivera Novoa</t>
+  </si>
+  <si>
     <t>Universidad de San Buenaventura</t>
   </si>
   <si>
-    <t>Ángel Rivera Novoa</t>
-  </si>
-  <si>
     <t>Holismo intencional y explicaicón de la comunicación</t>
   </si>
   <si>
@@ -672,12 +1291,12 @@
     <t>¿Hay cualidades intrínsecas de la experencia?</t>
   </si>
   <si>
+    <t>Jenny Lorena Bolívar - Jair Felipe Nova - Sandra Quijano - Daniel Ramos - Cristian David Triana - Andrés Felipe Urrego</t>
+  </si>
+  <si>
     <t>Universidad Nacional de Colombia y Universidad Pedagógica Nacional</t>
   </si>
   <si>
-    <t>Jenny Lorena Bolívar - Jair Felipe Nova - Sandra Quijano - Daniel Ramos - Cristian David Triana - Andrés Felipe Urrego</t>
-  </si>
-  <si>
     <t>Inteligencia Artificial y moralidad</t>
   </si>
   <si>
@@ -693,482 +1312,47 @@
     <t>La psicología evolucionista y la naturaleza humana</t>
   </si>
   <si>
-    <t>Ricardo Arcos-Palma</t>
-  </si>
-  <si>
-    <t>Filosofía del performance y su contemporaneidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La corporeidad del lenguaje: Palabra y acción. </t>
-  </si>
-  <si>
-    <t>Universdad de Los Andes</t>
-  </si>
-  <si>
-    <t>Lucas Ospina</t>
-  </si>
-  <si>
-    <t>Un artista de hambre</t>
-  </si>
-  <si>
-    <t>Carlos Eduardo Sanabria B.</t>
-  </si>
-  <si>
-    <t>La pregunta por el modo de ser de la obra de arte performática</t>
-  </si>
-  <si>
-    <t>Juan Carlos Guerrero Hernández</t>
-  </si>
-  <si>
-    <t>Reflexión histórica sobre la con-temporaneidad de filosofía y performance</t>
-  </si>
-  <si>
-    <t>Pontificia Universidad Javeriana</t>
-  </si>
-  <si>
-    <t>Miguel Ángel Pérez</t>
-  </si>
-  <si>
-    <t>Emociones y razón práctica</t>
-  </si>
-  <si>
-    <t>Emoción y pensamiento: el caso de la sorpresa</t>
-  </si>
-  <si>
-    <t>Juan Samuel Santos Castro</t>
-  </si>
-  <si>
-    <t>La ética de la apariencia y la posibilidad de una sociedad justa: una propuesta de inspiración humeana</t>
-  </si>
-  <si>
-    <t>Gustavo Gómez Pérez</t>
-  </si>
-  <si>
-    <t>Afectividad y política. Reflexiones sobre el Gorgias de Platón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ángela Calvo de Saavedra </t>
-  </si>
-  <si>
-    <t>Sensibilidad moral e inclusión del otro</t>
-  </si>
-  <si>
-    <t>María Paula Sabogal</t>
-  </si>
-  <si>
-    <t>Valor moral, casos marginales y percepciones corporales</t>
-  </si>
-  <si>
-    <t>Juan Pablo Hernández Betancur</t>
-  </si>
-  <si>
-    <t>El papel de la racionalidad en el amor y la moralidad. Contra el conativismo.</t>
-  </si>
-  <si>
-    <t>Palabrerío y empatía. SobreMemoria por correspondenciade Emma Reyes</t>
-  </si>
-  <si>
-    <t>Profesor Asociado, Departamento de Humanidades, Universidad Jorge Tadeo Lozano</t>
-  </si>
-  <si>
-    <t>Arte y educación</t>
-  </si>
-  <si>
-    <t>Cuerpo y pregunta: Experiencias de formación para la ciudadanía a partir de un enseñar como preguntar</t>
-  </si>
-  <si>
-    <t>Profesor titular, Universidad Jorge Tadeo Lozano</t>
-  </si>
-  <si>
-    <t>Álvaro Corral Cuartas</t>
-  </si>
-  <si>
-    <t>De los aportes de la educación artística al fortalecimiento del espíritu crítico</t>
-  </si>
-  <si>
-    <t>Profesora titular, Facultad de Artes y Diseño, Universidad Jorge Tadeo Lozano</t>
-  </si>
-  <si>
-    <t>Beatriz Elena Múnera Barbosa</t>
-  </si>
-  <si>
-    <t>Educándonos con y desde la fotografía</t>
-  </si>
-  <si>
-    <t>Profesor asociado, Departamento de Humanidades, Universidad Jorge Tadeo Lozano/Asesor Viceministerio de Educación Superior, Ministerio de Educación Nacional</t>
-  </si>
-  <si>
-    <t>Uriel Cárdenas</t>
-  </si>
-  <si>
-    <t>Ciencia vs. arte: Un dualismo derivado de ciertas prácticas educativas</t>
-  </si>
-  <si>
-    <t>Departamento de Humanidades, Universidad Jorge Tadeo Lozano</t>
-  </si>
-  <si>
-    <t>María Mercedes Durán</t>
-  </si>
-  <si>
-    <t>Maneras de entender el arte en la educación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julio Cesar Vargas </t>
-  </si>
-  <si>
-    <t>Lenguaje y comprensión</t>
-  </si>
-  <si>
-    <t>Sobre la intencionalidad y el conocimiento en Duns Scotus</t>
-  </si>
-  <si>
-    <t>Magíster en Filosofía Universidad del Valle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henry Escobar </t>
-  </si>
-  <si>
-    <t>La representación como el fundamento metafísico de la época moderna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julián Fernando Trujillo Amaya </t>
-  </si>
-  <si>
-    <t>Pragmaticismo, acción, hábito e interpretante último</t>
-  </si>
-  <si>
-    <t>Nelson Jair Cuchumbé Holguín</t>
-  </si>
-  <si>
-    <t>Aproximación a la relación lenguaje y comprensión desde filosofía hermenéutica de Gadamer</t>
-  </si>
-  <si>
-    <t>John Alexander Giraldo Chavarriaga</t>
-  </si>
-  <si>
-    <t>La Lengua española como medio de comprensión filosófica</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de San Martín (Argentina)</t>
-  </si>
-  <si>
-    <t>Graciela Ester Ralón de Walton</t>
-  </si>
-  <si>
-    <t>Figuras de la alteridad: el otro, lo otro, lo extraño</t>
-  </si>
-  <si>
-    <t>La Naturaleza como el “otro lado del hombre”. Un análisis desde la lógica responsiva</t>
-  </si>
-  <si>
-    <t>Universidad del Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonardo Verano </t>
-  </si>
-  <si>
-    <t>La carne y el rostro: Un diálogo entre Merleau-Ponty y Lévinas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad de Antioquia, Instituto de Filosofía </t>
-  </si>
-  <si>
-    <t>Ana María Rabe</t>
-  </si>
-  <si>
-    <t>El tiempo: lo otro del espacio. Reflexiones en torno a la unidad y alteridad espacio-temporal en Chillida y Heidegger</t>
-  </si>
-  <si>
-    <t>Universidad de Antioquia, Intituto de Filosofía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jairo Escobar </t>
-  </si>
-  <si>
-    <t>Tiempo y discurso en Bernhard Waldenfels. Una perspectiva fenonemonógica de lo extraño</t>
-  </si>
-  <si>
-    <t>Facultad de Filosofía. Universidad Michoacana de San Nicolás de Hidalgo, Morelia (México)</t>
-  </si>
-  <si>
-    <t>Rubí de María Gómez Campos</t>
-  </si>
-  <si>
-    <t>Sentir, percibir, concebir. Aproximación histórico-fenomenológica, ontológica y política a la diferencia de los sexos y la actividad de pensar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto de Investigaciones Filosóficas Luis Villoro. Universidad Michoacana de San Nicolás de Hidalgo, Morelia (México) </t>
-  </si>
-  <si>
-    <t>Mario Teodoro Ramírez</t>
-  </si>
-  <si>
-    <t>La alteridad indígena: motivo y razón de la filosofía de Luis Villoro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad de Medellín </t>
-  </si>
-  <si>
-    <t>Stascha Rohmer</t>
-  </si>
-  <si>
-    <t>Límite, juicio y alteridad en Hegel</t>
-  </si>
-  <si>
-    <t>Universidad de Antioquia. Instituto de Filosofía</t>
-  </si>
-  <si>
-    <t>Andrés Francisco Contreras S.</t>
-  </si>
-  <si>
-    <t>Alteridad, diferencia y perspectiva: el papel del otro y de lo otro en la filosofía hermenéutica</t>
-  </si>
-  <si>
-    <t>Florida State University</t>
-  </si>
-  <si>
-    <t>Jorge Oseguera</t>
-  </si>
-  <si>
-    <t>Etica evolucionista</t>
-  </si>
-  <si>
-    <t>Socavando el Constructivismo Evaluativo</t>
-  </si>
-  <si>
-    <t>Paul Rezkalla</t>
-  </si>
-  <si>
-    <t>"Debunking Has Not Been Debunked"</t>
-  </si>
-  <si>
-    <t>Facultad de ciencias Humanas, Universidad Autónoma de Colombia</t>
-  </si>
-  <si>
-    <t>Jorge Sierra</t>
-  </si>
-  <si>
-    <t>¿Puede el argumento evolutivo desacreditador contra el ateísmo naturalista demostrar la falsedad del dilema darwinista contra el realismo normativo?</t>
-  </si>
-  <si>
-    <t>Departamento de Filosofía, Universidad Nacional de Colombia</t>
-  </si>
-  <si>
-    <t>Victor Emilio Parra</t>
-  </si>
-  <si>
-    <t>Sobre el vacío explicativo en la estrategia de desacreditación de la moral de Richard Joyce</t>
-  </si>
-  <si>
-    <t>Adrian Cussins</t>
-  </si>
-  <si>
-    <t>Verdad y política</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La nueva política </t>
-  </si>
-  <si>
-    <t>William Duica</t>
-  </si>
-  <si>
-    <t>Perdón y comprensión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Eduardo Hoyos </t>
-  </si>
-  <si>
-    <t>Epistemología y política</t>
-  </si>
-  <si>
-    <t>La ciencia de la historia contra la ciencia del Estado (razones para omitir el uso de la palabra 'pos-moderno')</t>
-  </si>
-  <si>
-    <t>Andrea Mejía</t>
-  </si>
-  <si>
-    <t>Recursos de verdad, recursos de sentido</t>
-  </si>
-  <si>
-    <t>Gonzalo Serrano</t>
-  </si>
-  <si>
-    <t>Política del individuo</t>
-  </si>
-  <si>
-    <t>Asocición Colombiana de Psiquiatría</t>
-  </si>
-  <si>
-    <t>Jorge Dávila</t>
-  </si>
-  <si>
-    <t>VI SIMPOSIO COLOMBIANO DE FILOSOFÍA Y PSIQUIATRÍA: Enfoques fenomenológicos (1)</t>
-  </si>
-  <si>
-    <t>Variantes de hiperreflexividad en el Trastorno Obsesivo y en las Psicosis</t>
-  </si>
-  <si>
-    <t>Universidad El Bosque</t>
-  </si>
-  <si>
-    <t>Flor Emilce Cely</t>
-  </si>
-  <si>
-    <t>¿Apatheia, Ataraxia, Anhedonia? Distinciones desde el punto de vista fenomenológico</t>
-  </si>
-  <si>
-    <t>Andrés Villamil</t>
-  </si>
-  <si>
-    <t>Constituyendo el sentido de anormalidad. De la extrañeza cotidiana a la experiencia patológica</t>
-  </si>
-  <si>
-    <t>Juan J. Botero</t>
-  </si>
-  <si>
-    <t>Aproximación a una terapia corpo-cinética: recuperación del sentido cinestético</t>
-  </si>
-  <si>
-    <t>sidad Nacional - Doctorado en Filosofía</t>
-  </si>
-  <si>
-    <t>Luisa Fernanda Barrero</t>
-  </si>
-  <si>
-    <t>Consideraciones sobre la intersubjetividad en la Anorexia: Rupturas intersubjetivas a partir de la forma en que el cuerpo se siente a sí mismo</t>
-  </si>
-  <si>
-    <t>Camilo Sánchez</t>
-  </si>
-  <si>
-    <t>El sentido de propiedad, la unidad de la consciencia e implicaciones psicopatológicas</t>
-  </si>
-  <si>
-    <t>Diana Marcela Pérez</t>
-  </si>
-  <si>
-    <t>Reflexión sobre el sentido de agencia en Gallagher: el problema de la causalidad y sus límites en la psiquiatría</t>
-  </si>
-  <si>
-    <t>María Clara Garavito</t>
-  </si>
-  <si>
-    <t>Indagaciones fenomenológicas por el papel de los otros en la co-constitución de mundo primordial: Aportes al autismo y depresión infantil</t>
-  </si>
-  <si>
-    <t>Universidad Javeriana - Varios</t>
-  </si>
-  <si>
-    <t>Diana Matallana et al.</t>
-  </si>
-  <si>
-    <t>El self Corporal y la ínsula</t>
-  </si>
-  <si>
-    <t>Universidad del Valle, Departamento de Filosofía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martín Urquijo </t>
-  </si>
-  <si>
-    <t>Pobreza, desarrollo y justicia</t>
-  </si>
-  <si>
-    <t>Pobreza, desarrollo y justicia: Un análisis desde el enfoque de la capacidad de Amartya Sen</t>
-  </si>
-  <si>
-    <t>Universidad de Antioquia, Instituto de Filosofía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrés Eduardo Saldarriaga Madrigal </t>
-  </si>
-  <si>
-    <t>Pobreza y propiedad en el joven Marx</t>
-  </si>
-  <si>
-    <t>Universidad Pontificia Bolivariana, sede Medellín, Grupo Territorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">María Luisa Eschenhagen </t>
-  </si>
-  <si>
-    <t>Repensar nuestro habitar y relacionar con el entorno: ¿por qué y para qué alternativas AL desarrollo?</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de Colombia Sede Manizales, Grupo de Investigación en Pensamiento Ambiental.</t>
-  </si>
-  <si>
-    <t>Patricia Noguera</t>
-  </si>
-  <si>
-    <t>¿Para qué poetas en tiempos de Devastación?</t>
-  </si>
-  <si>
-    <t>Universidad Carlos III de Madrid, Departamento de Análisis Social.</t>
-  </si>
-  <si>
-    <t>Mercedes Pardo Buendía</t>
-  </si>
-  <si>
-    <t>Justicia Ambiental y Justicia Climática: el camino lento pero (esperemos) sin retorno hacia el Desarrollo Sostenible Justo (la Sostenibilidad Justa).</t>
-  </si>
-  <si>
-    <t>Universidad de Frankfurt, Instituto de Filosofía</t>
-  </si>
-  <si>
-    <t>Rosa Sierra</t>
-  </si>
-  <si>
-    <t>Justicia y desarrollo sostenible</t>
-  </si>
-  <si>
-    <t>Universidad del Norte, Departamento de Filosofía y Humanidades</t>
-  </si>
-  <si>
-    <t>Pedro Serna</t>
-  </si>
-  <si>
-    <t>Justicia intergeneracional. Un abordaje de sus fundamentos teóricos.</t>
+    <t>Guillermo Hurtado</t>
   </si>
   <si>
     <t>Investigador Titular del Instituto de Investigaciones Filosóficas de la Universidad Nacional Autónoma de México (UNAM)</t>
   </si>
   <si>
-    <t>Guillermo Hurtado</t>
+    <t>"Una batalla por la filosofía"</t>
   </si>
   <si>
     <t>Enseñanza de la Filosofía</t>
   </si>
   <si>
-    <t>"Una batalla por la filosofía"</t>
+    <t>Alejandro Cerletti</t>
   </si>
   <si>
     <t>Investigador docente de la Universidad Nacional de General Sarmiento y de la Universidad de Buenos Aires</t>
-  </si>
-  <si>
-    <t>Alejandro Cerletti</t>
   </si>
   <si>
     <t xml:space="preserve">La filosofía en la educación formal. Conflictos y posibilidades
 </t>
   </si>
   <si>
+    <t>Walter Omar Kohan</t>
+  </si>
+  <si>
     <t>Profesor Titular de Filosofía de la Educación de la Universidad del Estado de Río de Janeiro</t>
   </si>
   <si>
-    <t>Walter Omar Kohan</t>
-  </si>
-  <si>
     <t>Enseñar filosofía: ignorar, improvisar, inventar</t>
   </si>
   <si>
+    <t>Wilson Herrera, Raul Meléndez y Germán Vargas.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wilson Herrera: Profesor Asociado Universidad del Rosario. Raul Meléndez, Profesor Asociado, Universidad Nacional. Germán Vargas, Profesor Titular, Universidad Pedagógica </t>
   </si>
   <si>
-    <t>Wilson Herrera, Raul Meléndez y Germán Vargas.</t>
-  </si>
-  <si>
     <t>Las pruebas saber y la enseñanza de la filosofía</t>
+  </si>
+  <si>
+    <t>Nelson Jair Cuchumbe</t>
   </si>
   <si>
     <t>Director Programa de Filosofía
@@ -1176,45 +1360,42 @@
 Universidad del Valle</t>
   </si>
   <si>
-    <t>Nelson Jair Cuchumbe</t>
-  </si>
-  <si>
     <t>Aproximación a la lectura crítica desde la hermenéutica filosófica de Gadamer</t>
   </si>
   <si>
+    <t>Edgar Eslava</t>
+  </si>
+  <si>
     <t>Profesor Universidad Santo Tomás</t>
   </si>
   <si>
-    <t>Edgar Eslava</t>
-  </si>
-  <si>
     <t>Humanidades sin humanismo</t>
   </si>
   <si>
+    <t>Diana Melisa Paredes Oviedo</t>
+  </si>
+  <si>
     <t>Docente en el Instituto de Filosofía de la Universidad de Antioquia</t>
   </si>
   <si>
-    <t>Diana Melisa Paredes Oviedo</t>
-  </si>
-  <si>
     <t>Un sueño en educación: Propuesta para la constitución de la Red Colombiana en enseñanza de la Filosofía</t>
   </si>
   <si>
+    <t>Leonardo Tovar y Angela Niño Castro</t>
+  </si>
+  <si>
     <t>Profesor e investigador Universidad Santo Tomás, Coordinador del grupo Estudios en Pensamiento Filosófico en Colombia y América Latina- Fray Bartolomé de Las Casas. Angela es Directora de la Maestría en Filosofía de la Universidad Santo Tomás</t>
   </si>
   <si>
-    <t>Leonardo Tovar y Angela Niño Castro</t>
-  </si>
-  <si>
     <t>La lectura crítica y la lectura filosófica; Una ¿co-implicación?</t>
   </si>
   <si>
+    <t>Alfonso Cabanzo y Santiago Wills</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asesores del ICFES, Gestores de pruebas de lectura crítica </t>
   </si>
   <si>
-    <t>Alfonso Cabanzo y Santiago Wills</t>
-  </si>
-  <si>
     <t>Filosofía y Lectura Crítica</t>
   </si>
   <si>
@@ -1224,144 +1405,144 @@
     <t>1945-2015: 70 años del Departamento de Filosofía de la Universidad Nacional. Una apreciación personal</t>
   </si>
   <si>
+    <t>Carlos Ernesto Noguera Ramírez</t>
+  </si>
+  <si>
     <t>Profesor Titular Universidad Pedagógica Nacional</t>
   </si>
   <si>
-    <t>Carlos Ernesto Noguera Ramírez</t>
-  </si>
-  <si>
     <t>La formación como antropotécnica.Aproximación al concepto de Peter Sloterdijk y sus implicaciones educacionales</t>
   </si>
   <si>
+    <t>Dora Lilia Marín Díaz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Profesora Universidad Pedagógica. </t>
   </si>
   <si>
-    <t>Dora Lilia Marín Díaz</t>
-  </si>
-  <si>
     <t>Prácticas pedagógicas como antropotécnica: procedencia y transformaciones</t>
   </si>
   <si>
+    <t>Guillermo Bustamante Zamudio</t>
+  </si>
+  <si>
     <t>Profesor, Universidad Pedagógica</t>
   </si>
   <si>
-    <t>Guillermo Bustamante Zamudio</t>
-  </si>
-  <si>
     <t>El Menón de Platón y los efectos de formación</t>
   </si>
   <si>
-    <t>Universidad Alberto Hurtado (Santiago de Chile)</t>
-  </si>
-  <si>
-    <t>Marcelo Diego Boeri Carranza</t>
-  </si>
-  <si>
-    <t>Sobre los vicios y las virtudes</t>
-  </si>
-  <si>
-    <t>Filosofía antigua y la educación: Platón y la importancia de la educación en la formación del gobernante</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de Colombia (Bogotá)</t>
-  </si>
-  <si>
-    <t>Alfonso Correa Motta</t>
-  </si>
-  <si>
-    <t>Las “virtudes” del pirrónico</t>
-  </si>
-  <si>
-    <t>Universidad de los Andes (Bogotá)</t>
-  </si>
-  <si>
-    <t>Andrea Lozano-Vasquez</t>
-  </si>
-  <si>
-    <t>Entre el pluralismo moral y el monismo psicoló́gico: la diversidad de la virtud en Aristóteles</t>
-  </si>
-  <si>
-    <t>Germán Arturo Meléndez Acuña</t>
-  </si>
-  <si>
-    <t>Nietzsche y los griegos. En torno a la valoración ético-estética del carácter</t>
-  </si>
-  <si>
-    <t>Universidad Autónoma de Colombia (Bogotá)</t>
-  </si>
-  <si>
-    <t>Liliana Carolina Sánchez Castro</t>
-  </si>
-  <si>
-    <t>La tradición peripatética de los catálogos de vicios y virtudes</t>
-  </si>
-  <si>
-    <t>Universidad Autónoma Metropolitana (México DF)</t>
-  </si>
-  <si>
-    <t>Jörg Alejandro Tellkamp</t>
-  </si>
-  <si>
-    <t>Las pasiones del virtuoso según Tomás de Aquino</t>
-  </si>
-  <si>
-    <t>Universidad del Quindío</t>
-  </si>
-  <si>
-    <t>Rubiel Ramírez Restrepo</t>
-  </si>
-  <si>
-    <t>Filosofías ambientalistas y animalistas</t>
-  </si>
-  <si>
-    <t>Horizonte para una ética ambiental</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de Colombia.</t>
-  </si>
-  <si>
-    <t>Juan Camilo Cajigas Ph.D. (c)</t>
-  </si>
-  <si>
-    <t>Enredos Telúricos</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de Colombia, Sede Manizales</t>
-  </si>
-  <si>
-    <t>Ana Patricia Noguera de Echeverry</t>
-  </si>
-  <si>
-    <t>(sin titulo)</t>
-  </si>
-  <si>
-    <t>Gabriel Ocampo S.</t>
-  </si>
-  <si>
-    <t>La aspiración ética ricœuriana y la solidaridad social y ambiental</t>
-  </si>
-  <si>
-    <t>José Reinel Sánchez</t>
-  </si>
-  <si>
-    <t>EL FUTURO DEL AMBIENTALISMO: ENTRE EL PRINCIPIO DE LA LEY DE MURPHY Y EL MITO DE CASANDRA</t>
-  </si>
-  <si>
-    <t>Ysis Vélez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA PHRÓNESIS EN LOS ANIMALES </t>
+    <t xml:space="preserve">Martín Urquijo </t>
+  </si>
+  <si>
+    <t>Universidad del Valle, Departamento de Filosofía</t>
+  </si>
+  <si>
+    <t>Pobreza, desarrollo y justicia: Un análisis desde el enfoque de la capacidad de Amartya Sen</t>
+  </si>
+  <si>
+    <t>Pobreza, desarrollo y justicia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrés Eduardo Saldarriaga Madrigal </t>
+  </si>
+  <si>
+    <t>Universidad de Antioquia, Instituto de Filosofía</t>
+  </si>
+  <si>
+    <t>Pobreza y propiedad en el joven Marx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Luisa Eschenhagen </t>
+  </si>
+  <si>
+    <t>Universidad Pontificia Bolivariana, sede Medellín, Grupo Territorio</t>
+  </si>
+  <si>
+    <t>Repensar nuestro habitar y relacionar con el entorno: ¿por qué y para qué alternativas AL desarrollo?</t>
+  </si>
+  <si>
+    <t>Patricia Noguera</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de Colombia Sede Manizales, Grupo de Investigación en Pensamiento Ambiental.</t>
+  </si>
+  <si>
+    <t>¿Para qué poetas en tiempos de Devastación?</t>
+  </si>
+  <si>
+    <t>Mercedes Pardo Buendía</t>
+  </si>
+  <si>
+    <t>Universidad Carlos III de Madrid, Departamento de Análisis Social.</t>
+  </si>
+  <si>
+    <t>Justicia Ambiental y Justicia Climática: el camino lento pero (esperemos) sin retorno hacia el Desarrollo Sostenible Justo (la Sostenibilidad Justa).</t>
+  </si>
+  <si>
+    <t>Rosa Sierra</t>
+  </si>
+  <si>
+    <t>Universidad de Frankfurt, Instituto de Filosofía</t>
+  </si>
+  <si>
+    <t>Justicia y desarrollo sostenible</t>
+  </si>
+  <si>
+    <t>Pedro Serna</t>
+  </si>
+  <si>
+    <t>Universidad del Norte, Departamento de Filosofía y Humanidades</t>
+  </si>
+  <si>
+    <t>Justicia intergeneracional. Un abordaje de sus fundamentos teóricos.</t>
+  </si>
+  <si>
+    <t>Danny Marrero</t>
+  </si>
+  <si>
+    <t>Fiscalía General de la Nación</t>
+  </si>
+  <si>
+    <t>Una propuesta para disolver los dilemas del conocimiento basado en testimonio</t>
+  </si>
+  <si>
+    <t>Epistemología Social: Testimonio, Intensionalidad Colectiva y la Estructura Social de la Ciencia</t>
+  </si>
+  <si>
+    <t>Manuela Fernández Pinto</t>
+  </si>
+  <si>
+    <t>Limitaciones del giro naturalista: La epistemología social como un caso de imperialismo científico</t>
+  </si>
+  <si>
+    <t>Andrés Páez</t>
+  </si>
+  <si>
+    <t>El rol epistémico de la reputación en la ciencia</t>
+  </si>
+  <si>
+    <t>Douglas Niño</t>
+  </si>
+  <si>
+    <t>Trasfondo, generación terreno común y normatividad: una propuesta</t>
+  </si>
+  <si>
+    <t>Alejandro Vesga</t>
+  </si>
+  <si>
+    <t>Razones para actuar y razones para creer: el papel de la normatividad práctica en la epistemología del testimonio</t>
   </si>
   <si>
     <t>Leonardo González</t>
   </si>
   <si>
+    <t>El papel de la confianza en la acción colectiva</t>
+  </si>
+  <si>
     <t>Filosofía de la Acción</t>
   </si>
   <si>
-    <t>El papel de la confianza en la acción colectiva</t>
-  </si>
-  <si>
     <t>Laura Mojica</t>
   </si>
   <si>
@@ -1401,144 +1582,30 @@
     <t xml:space="preserve">Acciones y deberes morales: sobre los deberes más allá de las capacidades de los agentes  </t>
   </si>
   <si>
-    <t>Héctor Salinas</t>
-  </si>
-  <si>
-    <t>Filosofía medieval</t>
-  </si>
-  <si>
-    <t>Univocidad del ser en Enrique de Gante y Juan Duns Escoto: el transfondo aviceniano</t>
-  </si>
-  <si>
-    <t>Biviana Unger Parra</t>
-  </si>
-  <si>
-    <t>Agustín y Cicerón: de la retórica a la filosofía</t>
-  </si>
-  <si>
-    <t>Nicolás Vaughan</t>
-  </si>
-  <si>
-    <t>Ockham y Anselmo sobre la verdad</t>
-  </si>
-  <si>
-    <t>Felipe Castañeda Salamanca</t>
-  </si>
-  <si>
-    <t>La teoría de la verdad de Anselmo de Canterbury</t>
-  </si>
-  <si>
-    <t>Maximiliana Prada Dusán</t>
-  </si>
-  <si>
-    <t>Filosofía de la música en san Agustín: el papel de la práctica musical en el acercamiento a realidades inmateriales</t>
-  </si>
-  <si>
-    <t>COLCIENCIAS/Universidad Nacional de Colombia</t>
-  </si>
-  <si>
-    <t>José Higuera</t>
-  </si>
-  <si>
-    <t>El Arte luliano y la recepción medieval de los Tópicos de Aristóteles</t>
-  </si>
-  <si>
-    <t>Univrsidad Autónoma Metropolitana (México DF)</t>
-  </si>
-  <si>
-    <t>El papel de la demostración en el pensamiento político de Marsilio de Padua</t>
-  </si>
-  <si>
-    <t>Programa Filosofía Universidad Externado</t>
-  </si>
-  <si>
-    <t>Luisa Monsalve Medina P.H.D</t>
-  </si>
-  <si>
-    <t>Emociones, Voluntad y Racionalidad.</t>
-  </si>
-  <si>
-    <t>Emociones Morales Dilemas e Infortunio</t>
-  </si>
-  <si>
-    <t>Programa de Filosofía Universidad Externado</t>
-  </si>
-  <si>
-    <t>Juan Pablo Bermudez P.H.D</t>
-  </si>
-  <si>
-    <t>¿ Que es el Comportamiento Automático ?</t>
-  </si>
-  <si>
-    <t>Programa de Filosifía Universidad Externado</t>
-  </si>
-  <si>
-    <t>Jennifer Andrea Rivera Magister</t>
-  </si>
-  <si>
-    <t>El Deseo Como Voluntad en Gilles Deleuze</t>
-  </si>
-  <si>
-    <t>Universidad San buenaventura</t>
-  </si>
-  <si>
-    <t>Sebastián Pereira P.H.D</t>
-  </si>
-  <si>
-    <t>Empatía y moralidad.</t>
-  </si>
-  <si>
-    <t>universidad Autónoma</t>
-  </si>
-  <si>
-    <t>Jorge Sierra P.H.D</t>
-  </si>
-  <si>
-    <t>Lealtad ampliada, sentimientos morales y derechos animales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universdiad Autónoma </t>
-  </si>
-  <si>
-    <t>Adryan Fabrizio Pineda Magister</t>
-  </si>
-  <si>
-    <t>La subjetividad o la estética de lo inacabable</t>
-  </si>
-  <si>
-    <t>Universidad de Antioquia</t>
-  </si>
-  <si>
-    <t>Lucy carrillo</t>
-  </si>
-  <si>
-    <t>Thomas Hobbes,pasiones, razones y filosofia moral</t>
+    <t>Sergio Ariza</t>
   </si>
   <si>
     <t>Departamento de Filosofía, Universidad de los Andes</t>
   </si>
   <si>
-    <t>Sergio Ariza</t>
+    <t>SOPHIA  en  el Elogio de  Helena de Gorgias</t>
   </si>
   <si>
     <t>Retórica y filosofía antigua</t>
   </si>
   <si>
-    <t>SOPHIA  en  el Elogio de  Helena de Gorgias</t>
-  </si>
-  <si>
     <t>Brian Marrin</t>
   </si>
   <si>
     <t>“¿A quién engaña la retórica? La parodia de la justicia en el Gorgias de Platón”</t>
   </si>
   <si>
+    <t>Nicolás Parra</t>
+  </si>
+  <si>
     <t>Facultad de Derecho, Universidad de los Andes</t>
   </si>
   <si>
-    <t>Nicolás Parra</t>
-  </si>
-  <si>
     <t>Apuntes sobre la retórica y el arte político socrático: una lectura dramática del Gorgias de Platón.</t>
   </si>
   <si>
@@ -1548,80 +1615,13 @@
     <t>Retórica y virtudes argumentativas</t>
   </si>
   <si>
+    <t>Francisco Casas</t>
+  </si>
+  <si>
     <t>Departamento de Filosofía, Universidad de la Sabana</t>
   </si>
   <si>
-    <t>Francisco Casas</t>
-  </si>
-  <si>
     <t>Moralidad y Retórica: descripción e inversión de las virtudes y los vicios en la Guerra Civil (stásis) en Corcira (Tucídides, III, 82-84).</t>
-  </si>
-  <si>
-    <t>Federico Guillermo Serrano López</t>
-  </si>
-  <si>
-    <t>Simposio sobre pensamiento colombiano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Una densa trama de bagatelas. Una reflexión sobre la obra ensayística de Hernando Téllez </t>
-  </si>
-  <si>
-    <t>Yelitza Marcela Forero Reyes</t>
-  </si>
-  <si>
-    <t>Libertad de imprenta: un desafío para el pensamiento liberal colombiano del siglo XIX</t>
-  </si>
-  <si>
-    <t>Universidad Colegio Mayor de Nuestra Señora del Rosario</t>
-  </si>
-  <si>
-    <t>Énver Joel Torregroza Lara</t>
-  </si>
-  <si>
-    <t>Cómo leer a Nicolás Gómez Dávila: claves para interpretar la filosofía de Textos I.</t>
-  </si>
-  <si>
-    <t>Balance crítico de la filosofía política en Colombia</t>
-  </si>
-  <si>
-    <t>Universidad del Atlántico</t>
-  </si>
-  <si>
-    <t>Numas Armando Gil Olivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafael Carrillo Filosofo- Educador </t>
-  </si>
-  <si>
-    <t>Óscar Saldarriaga Vélez</t>
-  </si>
-  <si>
-    <t>La filosofía como "disciplina escolar" en Colombia. Siglos XVII a XX: una hipótesis</t>
-  </si>
-  <si>
-    <t>Universidad Santo Tomás</t>
-  </si>
-  <si>
-    <t>Leonardo Tovar</t>
-  </si>
-  <si>
-    <t>Tras la justicia en la filosofía política actual en Colombia</t>
-  </si>
-  <si>
-    <t>Juan Fernando Mejía</t>
-  </si>
-  <si>
-    <t>En todo reaccionario Platón resucita:
-trazos para un retrato de Nicolás Gómez Dávila como pensador reaccionario</t>
-  </si>
-  <si>
-    <t>Rubén Sierra Mejía</t>
-  </si>
-  <si>
-    <t>Escritos de juventud de Danilo Cruz Vélez</t>
-  </si>
-  <si>
-    <t>Sobre la publicación de las Obras completas de Danilo Cruz Vélez</t>
   </si>
 </sst>
 </file>
@@ -2014,10 +2014,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2028,10 +2028,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2042,10 +2042,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2056,10 +2056,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2070,10 +2070,10 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2084,10 +2084,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2098,10 +2098,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2112,24 +2112,24 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2140,24 +2140,24 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2168,38 +2168,38 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2210,52 +2210,52 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2263,2152 +2263,2152 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
         <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
         <v>114</v>
-      </c>
-      <c r="D40" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
         <v>116</v>
       </c>
-      <c r="B41" t="s">
-        <v>122</v>
-      </c>
       <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
         <v>114</v>
-      </c>
-      <c r="D41" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="s">
         <v>114</v>
-      </c>
-      <c r="D42" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" t="s">
         <v>114</v>
-      </c>
-      <c r="D43" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
         <v>114</v>
-      </c>
-      <c r="D44" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
         <v>114</v>
-      </c>
-      <c r="D45" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
         <v>114</v>
-      </c>
-      <c r="D46" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D61" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D64" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="D71" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="D74" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="D75" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="D78" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D80" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D81" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D82" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B83" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D83" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C84" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D84" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="D85" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="D86" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="C87" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="C89" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="D89" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="C90" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="D90" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="D91" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B92" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C92" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D92" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s">
         <v>235</v>
       </c>
       <c r="D93" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c r="C94" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D94" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D95" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B96" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C96" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D96" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>243</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D97" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B98" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C98" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D98" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C99" t="s">
         <v>250</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>251</v>
       </c>
       <c r="B100" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D100" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C101" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D101" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B102" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C102" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D102" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B103" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C103" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D103" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C104" t="s">
         <v>263</v>
       </c>
       <c r="D104" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B105" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C105" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D105" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B106" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D106" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B107" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C107" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D107" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B108" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C108" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D108" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B109" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C109" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D109" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B110" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C110" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D110" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B111" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C111" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D111" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B112" t="s">
-        <v>293</v>
+        <v>66</v>
       </c>
       <c r="C112" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D112" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B113" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s">
         <v>288</v>
       </c>
       <c r="D113" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="B114" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C114" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D114" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="B115" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C115" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D115" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c r="B116" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C116" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D116" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="B117" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="C117" t="s">
         <v>299</v>
       </c>
       <c r="D117" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="B118" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C118" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D118" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>308</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D119" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B120" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C120" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D120" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B121" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C121" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D121" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="B122" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C122" t="s">
         <v>312</v>
       </c>
       <c r="D122" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="B123" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C123" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D123" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B124" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C124" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D124" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="B125" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C125" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D125" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="B126" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C126" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D126" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>187</v>
+        <v>325</v>
       </c>
       <c r="B127" t="s">
+        <v>326</v>
+      </c>
+      <c r="C127" t="s">
+        <v>327</v>
+      </c>
+      <c r="D127" t="s">
         <v>328</v>
-      </c>
-      <c r="C127" t="s">
-        <v>312</v>
-      </c>
-      <c r="D127" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
+        <v>329</v>
+      </c>
+      <c r="B128" t="s">
         <v>330</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>331</v>
       </c>
-      <c r="C128" t="s">
-        <v>312</v>
-      </c>
       <c r="D128" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
+        <v>332</v>
+      </c>
+      <c r="B129" t="s">
         <v>333</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>334</v>
       </c>
-      <c r="C129" t="s">
-        <v>335</v>
-      </c>
       <c r="D129" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
+        <v>335</v>
+      </c>
+      <c r="B130" t="s">
+        <v>336</v>
+      </c>
+      <c r="C130" t="s">
         <v>337</v>
       </c>
-      <c r="B130" t="s">
-        <v>338</v>
-      </c>
-      <c r="C130" t="s">
-        <v>335</v>
-      </c>
       <c r="D130" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
+        <v>338</v>
+      </c>
+      <c r="B131" t="s">
+        <v>339</v>
+      </c>
+      <c r="C131" t="s">
         <v>340</v>
       </c>
-      <c r="B131" t="s">
-        <v>341</v>
-      </c>
-      <c r="C131" t="s">
-        <v>335</v>
-      </c>
       <c r="D131" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
+        <v>341</v>
+      </c>
+      <c r="B132" t="s">
+        <v>342</v>
+      </c>
+      <c r="C132" t="s">
         <v>343</v>
       </c>
-      <c r="B132" t="s">
-        <v>344</v>
-      </c>
-      <c r="C132" t="s">
-        <v>335</v>
-      </c>
       <c r="D132" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
+        <v>344</v>
+      </c>
+      <c r="B133" t="s">
+        <v>345</v>
+      </c>
+      <c r="C133" t="s">
         <v>346</v>
       </c>
-      <c r="B133" t="s">
-        <v>347</v>
-      </c>
-      <c r="C133" t="s">
-        <v>335</v>
-      </c>
       <c r="D133" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
+        <v>347</v>
+      </c>
+      <c r="B134" t="s">
+        <v>348</v>
+      </c>
+      <c r="C134" t="s">
         <v>349</v>
       </c>
-      <c r="B134" t="s">
-        <v>350</v>
-      </c>
-      <c r="C134" t="s">
-        <v>335</v>
-      </c>
       <c r="D134" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
+        <v>350</v>
+      </c>
+      <c r="B135" t="s">
+        <v>351</v>
+      </c>
+      <c r="C135" t="s">
         <v>352</v>
       </c>
-      <c r="B135" t="s">
-        <v>353</v>
-      </c>
-      <c r="C135" t="s">
-        <v>335</v>
-      </c>
       <c r="D135" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
+        <v>353</v>
+      </c>
+      <c r="B136" t="s">
+        <v>354</v>
+      </c>
+      <c r="C136" t="s">
         <v>355</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D136" t="s">
         <v>356</v>
-      </c>
-      <c r="C136" t="s">
-        <v>357</v>
-      </c>
-      <c r="D136" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B137" t="s">
-        <v>360</v>
+        <v>254</v>
       </c>
       <c r="C137" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D137" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B138" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C138" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D138" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B139" t="s">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="C139" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D139" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B140" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C140" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D140" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B141" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C141" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="D141" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B142" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C142" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D142" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B143" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C143" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="D143" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B144" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C144" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="D144" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B145" t="s">
-        <v>308</v>
+        <v>380</v>
       </c>
       <c r="C145" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="D145" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B146" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C146" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="D146" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B147" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C147" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="D147" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="B148" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C148" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="D148" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B149" t="s">
-        <v>395</v>
+        <v>59</v>
       </c>
       <c r="C149" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D149" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B150" t="s">
-        <v>399</v>
+        <v>42</v>
       </c>
       <c r="C150" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D150" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B151" t="s">
-        <v>402</v>
+        <v>51</v>
       </c>
       <c r="C151" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D151" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
+        <v>396</v>
+      </c>
+      <c r="B152" t="s">
+        <v>397</v>
+      </c>
+      <c r="C152" t="s">
         <v>398</v>
       </c>
-      <c r="B152" t="s">
-        <v>404</v>
-      </c>
-      <c r="C152" t="s">
-        <v>396</v>
-      </c>
       <c r="D152" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B153" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C153" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D153" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B154" t="s">
-        <v>410</v>
+        <v>51</v>
       </c>
       <c r="C154" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D154" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B155" t="s">
-        <v>413</v>
+        <v>51</v>
       </c>
       <c r="C155" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D155" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B156" t="s">
-        <v>417</v>
+        <v>51</v>
       </c>
       <c r="C156" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D156" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B157" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C157" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D157" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
+        <v>411</v>
+      </c>
+      <c r="B158" t="s">
+        <v>51</v>
+      </c>
+      <c r="C158" t="s">
         <v>412</v>
       </c>
-      <c r="B158" t="s">
-        <v>422</v>
-      </c>
-      <c r="C158" t="s">
-        <v>414</v>
-      </c>
       <c r="D158" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B159" t="s">
-        <v>424</v>
+        <v>51</v>
       </c>
       <c r="C159" t="s">
         <v>414</v>
       </c>
       <c r="D159" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B160" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C160" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D160" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>187</v>
+        <v>419</v>
       </c>
       <c r="B161" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C161" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D161" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>314</v>
+        <v>422</v>
       </c>
       <c r="B162" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C162" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D162" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>314</v>
+        <v>425</v>
       </c>
       <c r="B163" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C163" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D163" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>314</v>
+        <v>428</v>
       </c>
       <c r="B164" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C164" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D164" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>314</v>
+        <v>431</v>
       </c>
       <c r="B165" t="s">
-        <v>315</v>
+        <v>432</v>
       </c>
       <c r="C165" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D165" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>434</v>
       </c>
       <c r="B166" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C166" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D166" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>187</v>
+        <v>437</v>
       </c>
       <c r="B167" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C167" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="D167" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="B168" t="s">
+        <v>441</v>
+      </c>
+      <c r="C168" t="s">
         <v>442</v>
       </c>
-      <c r="C168" t="s">
-        <v>429</v>
-      </c>
       <c r="D168" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="B169" t="s">
+        <v>443</v>
+      </c>
+      <c r="C169" t="s">
         <v>444</v>
       </c>
-      <c r="C169" t="s">
-        <v>445</v>
-      </c>
       <c r="D169" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>116</v>
+        <v>445</v>
       </c>
       <c r="B170" t="s">
+        <v>446</v>
+      </c>
+      <c r="C170" t="s">
         <v>447</v>
       </c>
-      <c r="C170" t="s">
-        <v>445</v>
-      </c>
       <c r="D170" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>36</v>
+        <v>448</v>
       </c>
       <c r="B171" t="s">
         <v>449</v>
       </c>
       <c r="C171" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D171" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>36</v>
+        <v>451</v>
       </c>
       <c r="B172" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C172" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D172" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>101</v>
+        <v>454</v>
       </c>
       <c r="B173" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C173" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="D173" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B174" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C174" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="D174" t="s">
         <v>457</v>
@@ -4416,142 +4416,142 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B175" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="C175" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="D175" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B176" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C176" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D176" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B177" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C177" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D177" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B178" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C178" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D178" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B179" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C179" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D179" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B180" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C180" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="D180" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B181" t="s">
-        <v>477</v>
+        <v>59</v>
       </c>
       <c r="C181" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="D181" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
+        <v>482</v>
+      </c>
+      <c r="B182" t="s">
+        <v>59</v>
+      </c>
+      <c r="C182" t="s">
+        <v>483</v>
+      </c>
+      <c r="D182" t="s">
         <v>479</v>
-      </c>
-      <c r="B182" t="s">
-        <v>480</v>
-      </c>
-      <c r="C182" t="s">
-        <v>462</v>
-      </c>
-      <c r="D182" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B183" t="s">
-        <v>483</v>
+        <v>249</v>
       </c>
       <c r="C183" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D183" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B184" t="s">
-        <v>486</v>
+        <v>59</v>
       </c>
       <c r="C184" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D184" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4559,10 +4559,10 @@
         <v>488</v>
       </c>
       <c r="B185" t="s">
+        <v>51</v>
+      </c>
+      <c r="C185" t="s">
         <v>489</v>
-      </c>
-      <c r="C185" t="s">
-        <v>484</v>
       </c>
       <c r="D185" t="s">
         <v>490</v>
@@ -4570,16 +4570,16 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>246</v>
+        <v>491</v>
       </c>
       <c r="B186" t="s">
-        <v>491</v>
+        <v>225</v>
       </c>
       <c r="C186" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D186" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4587,153 +4587,153 @@
         <v>493</v>
       </c>
       <c r="B187" t="s">
+        <v>225</v>
+      </c>
+      <c r="C187" t="s">
         <v>494</v>
       </c>
-      <c r="C187" t="s">
-        <v>484</v>
-      </c>
       <c r="D187" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>265</v>
+        <v>495</v>
       </c>
       <c r="B188" t="s">
+        <v>225</v>
+      </c>
+      <c r="C188" t="s">
         <v>496</v>
       </c>
-      <c r="C188" t="s">
-        <v>497</v>
-      </c>
       <c r="D188" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B189" t="s">
-        <v>499</v>
+        <v>225</v>
       </c>
       <c r="C189" t="s">
         <v>497</v>
       </c>
       <c r="D189" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B190" t="s">
-        <v>502</v>
+        <v>51</v>
       </c>
       <c r="C190" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D190" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>219</v>
+        <v>500</v>
       </c>
       <c r="B191" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C191" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D191" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B192" t="s">
-        <v>506</v>
+        <v>30</v>
       </c>
       <c r="C192" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D192" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>219</v>
+        <v>504</v>
       </c>
       <c r="B193" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C193" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D193" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B194" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C194" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="D194" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>219</v>
+        <v>510</v>
       </c>
       <c r="B195" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C195" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="D195" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>187</v>
+        <v>513</v>
       </c>
       <c r="B196" t="s">
-        <v>515</v>
+        <v>183</v>
       </c>
       <c r="C196" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="D196" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>159</v>
+        <v>515</v>
       </c>
       <c r="B197" t="s">
-        <v>160</v>
+        <v>516</v>
       </c>
       <c r="C197" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="D197" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
